--- a/src/data/data_processed/static_annual_data/emission_of_particulates_by_powiat.xlsx
+++ b/src/data/data_processed/static_annual_data/emission_of_particulates_by_powiat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1035,8 +1035,10 @@
       <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
-        <v>201000</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0201000</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1183,8 +1185,10 @@
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
-        <v>202000</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0202000</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1331,8 +1335,10 @@
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
-        <v>203000</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0203000</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1479,8 +1485,10 @@
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="n">
-        <v>204000</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0204000</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1627,8 +1635,10 @@
       <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>205000</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0205000</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1775,8 +1785,10 @@
       <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>206000</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0206000</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1923,8 +1935,10 @@
       <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B11" t="n">
-        <v>207000</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0207000</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2071,8 +2085,10 @@
       <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
-        <v>208000</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0208000</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2219,8 +2235,10 @@
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B13" t="n">
-        <v>209000</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0209000</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2367,8 +2385,10 @@
       <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B14" t="n">
-        <v>210000</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0210000</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2515,8 +2535,10 @@
       <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B15" t="n">
-        <v>211000</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0211000</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2663,8 +2685,10 @@
       <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B16" t="n">
-        <v>212000</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0212000</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2811,8 +2835,10 @@
       <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
-        <v>213000</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0213000</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2959,8 +2985,10 @@
       <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B18" t="n">
-        <v>214000</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0214000</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3107,8 +3135,10 @@
       <c r="A19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B19" t="n">
-        <v>215000</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0215000</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3255,8 +3285,10 @@
       <c r="A20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B20" t="n">
-        <v>216000</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0216000</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3403,8 +3435,10 @@
       <c r="A21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B21" t="n">
-        <v>217000</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0217000</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3551,8 +3585,10 @@
       <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B22" t="n">
-        <v>218000</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0218000</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3699,8 +3735,10 @@
       <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B23" t="n">
-        <v>219000</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0219000</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3847,8 +3885,10 @@
       <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B24" t="n">
-        <v>220000</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0220000</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3995,8 +4035,10 @@
       <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B25" t="n">
-        <v>221000</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0221000</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4143,8 +4185,10 @@
       <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B26" t="n">
-        <v>222000</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0222000</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4291,8 +4335,10 @@
       <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B27" t="n">
-        <v>223000</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0223000</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4439,8 +4485,10 @@
       <c r="A28" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B28" t="n">
-        <v>224000</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0224000</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4587,8 +4635,10 @@
       <c r="A29" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B29" t="n">
-        <v>225000</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0225000</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4735,8 +4785,10 @@
       <c r="A30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B30" t="n">
-        <v>226000</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0226000</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4883,8 +4935,10 @@
       <c r="A31" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B31" t="n">
-        <v>261000</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0261000</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5031,8 +5085,10 @@
       <c r="A32" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B32" t="n">
-        <v>262000</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0262000</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -5179,8 +5235,10 @@
       <c r="A33" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B33" t="n">
-        <v>264000</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0264000</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5327,8 +5385,10 @@
       <c r="A34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B34" t="n">
-        <v>265000</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0265000</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5475,8 +5535,10 @@
       <c r="A35" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B35" t="n">
-        <v>401000</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0401000</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5623,8 +5685,10 @@
       <c r="A36" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B36" t="n">
-        <v>402000</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0402000</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5771,8 +5835,10 @@
       <c r="A37" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B37" t="n">
-        <v>403000</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0403000</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5919,8 +5985,10 @@
       <c r="A38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B38" t="n">
-        <v>404000</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0404000</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -6067,8 +6135,10 @@
       <c r="A39" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B39" t="n">
-        <v>405000</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0405000</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -6215,8 +6285,10 @@
       <c r="A40" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B40" t="n">
-        <v>406000</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0406000</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -6363,8 +6435,10 @@
       <c r="A41" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B41" t="n">
-        <v>407000</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0407000</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6511,8 +6585,10 @@
       <c r="A42" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B42" t="n">
-        <v>408000</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0408000</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6659,8 +6735,10 @@
       <c r="A43" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B43" t="n">
-        <v>409000</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0409000</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6807,8 +6885,10 @@
       <c r="A44" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B44" t="n">
-        <v>410000</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0410000</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6955,8 +7035,10 @@
       <c r="A45" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B45" t="n">
-        <v>411000</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0411000</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -7103,8 +7185,10 @@
       <c r="A46" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B46" t="n">
-        <v>412000</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0412000</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -7251,8 +7335,10 @@
       <c r="A47" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B47" t="n">
-        <v>413000</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0413000</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -7399,8 +7485,10 @@
       <c r="A48" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B48" t="n">
-        <v>414000</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0414000</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -7547,8 +7635,10 @@
       <c r="A49" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B49" t="n">
-        <v>415000</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0415000</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -7695,8 +7785,10 @@
       <c r="A50" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B50" t="n">
-        <v>416000</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0416000</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -7843,8 +7935,10 @@
       <c r="A51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B51" t="n">
-        <v>417000</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0417000</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -7991,8 +8085,10 @@
       <c r="A52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B52" t="n">
-        <v>418000</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0418000</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -8139,8 +8235,10 @@
       <c r="A53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B53" t="n">
-        <v>419000</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0419000</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -8287,8 +8385,10 @@
       <c r="A54" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B54" t="n">
-        <v>461000</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0461000</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -8435,8 +8535,10 @@
       <c r="A55" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B55" t="n">
-        <v>462000</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0462000</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -8583,8 +8685,10 @@
       <c r="A56" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B56" t="n">
-        <v>463000</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0463000</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -8731,8 +8835,10 @@
       <c r="A57" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B57" t="n">
-        <v>464000</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0464000</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -8879,8 +8985,10 @@
       <c r="A58" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B58" t="n">
-        <v>601000</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0601000</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -9027,8 +9135,10 @@
       <c r="A59" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B59" t="n">
-        <v>602000</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0602000</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -9175,8 +9285,10 @@
       <c r="A60" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B60" t="n">
-        <v>603000</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0603000</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -9323,8 +9435,10 @@
       <c r="A61" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B61" t="n">
-        <v>604000</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0604000</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -9471,8 +9585,10 @@
       <c r="A62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B62" t="n">
-        <v>605000</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0605000</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -9619,8 +9735,10 @@
       <c r="A63" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B63" t="n">
-        <v>606000</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0606000</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -9767,8 +9885,10 @@
       <c r="A64" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B64" t="n">
-        <v>607000</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0607000</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -9915,8 +10035,10 @@
       <c r="A65" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B65" t="n">
-        <v>608000</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0608000</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -10063,8 +10185,10 @@
       <c r="A66" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B66" t="n">
-        <v>609000</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0609000</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -10211,8 +10335,10 @@
       <c r="A67" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B67" t="n">
-        <v>610000</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0610000</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -10359,8 +10485,10 @@
       <c r="A68" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B68" t="n">
-        <v>611000</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0611000</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -10507,8 +10635,10 @@
       <c r="A69" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B69" t="n">
-        <v>612000</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0612000</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -10655,8 +10785,10 @@
       <c r="A70" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B70" t="n">
-        <v>613000</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0613000</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -10803,8 +10935,10 @@
       <c r="A71" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B71" t="n">
-        <v>614000</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0614000</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -10951,8 +11085,10 @@
       <c r="A72" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B72" t="n">
-        <v>615000</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0615000</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -11099,8 +11235,10 @@
       <c r="A73" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B73" t="n">
-        <v>616000</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0616000</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -11247,8 +11385,10 @@
       <c r="A74" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B74" t="n">
-        <v>617000</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0617000</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -11395,8 +11535,10 @@
       <c r="A75" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B75" t="n">
-        <v>618000</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0618000</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -11543,8 +11685,10 @@
       <c r="A76" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B76" t="n">
-        <v>619000</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0619000</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -11691,8 +11835,10 @@
       <c r="A77" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B77" t="n">
-        <v>620000</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0620000</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -11839,8 +11985,10 @@
       <c r="A78" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B78" t="n">
-        <v>661000</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0661000</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -11987,8 +12135,10 @@
       <c r="A79" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B79" t="n">
-        <v>662000</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0662000</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -12135,8 +12285,10 @@
       <c r="A80" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B80" t="n">
-        <v>663000</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0663000</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -12283,8 +12435,10 @@
       <c r="A81" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B81" t="n">
-        <v>664000</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0664000</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -12431,8 +12585,10 @@
       <c r="A82" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B82" t="n">
-        <v>801000</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0801000</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -12579,8 +12735,10 @@
       <c r="A83" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B83" t="n">
-        <v>802000</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0802000</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -12727,8 +12885,10 @@
       <c r="A84" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B84" t="n">
-        <v>803000</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0803000</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -12875,8 +13035,10 @@
       <c r="A85" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B85" t="n">
-        <v>804000</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0804000</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -13023,8 +13185,10 @@
       <c r="A86" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B86" t="n">
-        <v>805000</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0805000</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -13171,8 +13335,10 @@
       <c r="A87" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B87" t="n">
-        <v>806000</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0806000</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -13319,8 +13485,10 @@
       <c r="A88" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B88" t="n">
-        <v>807000</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0807000</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -13467,8 +13635,10 @@
       <c r="A89" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B89" t="n">
-        <v>808000</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0808000</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -13615,8 +13785,10 @@
       <c r="A90" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B90" t="n">
-        <v>809000</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0809000</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -13763,8 +13935,10 @@
       <c r="A91" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B91" t="n">
-        <v>810000</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0810000</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -13911,8 +14085,10 @@
       <c r="A92" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B92" t="n">
-        <v>811000</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0811000</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -14059,8 +14235,10 @@
       <c r="A93" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B93" t="n">
-        <v>812000</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0812000</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -14207,8 +14385,10 @@
       <c r="A94" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B94" t="n">
-        <v>861000</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0861000</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -14355,8 +14535,10 @@
       <c r="A95" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B95" t="n">
-        <v>862000</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0862000</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -14503,8 +14685,10 @@
       <c r="A96" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B96" t="n">
-        <v>1001000</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1001000</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -14651,8 +14835,10 @@
       <c r="A97" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B97" t="n">
-        <v>1002000</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1002000</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -14799,8 +14985,10 @@
       <c r="A98" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B98" t="n">
-        <v>1003000</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1003000</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -14947,8 +15135,10 @@
       <c r="A99" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B99" t="n">
-        <v>1004000</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1004000</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -15095,8 +15285,10 @@
       <c r="A100" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B100" t="n">
-        <v>1005000</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1005000</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -15243,8 +15435,10 @@
       <c r="A101" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B101" t="n">
-        <v>1006000</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1006000</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -15391,8 +15585,10 @@
       <c r="A102" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B102" t="n">
-        <v>1007000</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1007000</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -15539,8 +15735,10 @@
       <c r="A103" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B103" t="n">
-        <v>1008000</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1008000</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -15687,8 +15885,10 @@
       <c r="A104" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B104" t="n">
-        <v>1009000</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1009000</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -15835,8 +16035,10 @@
       <c r="A105" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B105" t="n">
-        <v>1010000</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1010000</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -15983,8 +16185,10 @@
       <c r="A106" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B106" t="n">
-        <v>1011000</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1011000</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -16131,8 +16335,10 @@
       <c r="A107" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B107" t="n">
-        <v>1012000</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1012000</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -16279,8 +16485,10 @@
       <c r="A108" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B108" t="n">
-        <v>1013000</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1013000</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -16427,8 +16635,10 @@
       <c r="A109" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B109" t="n">
-        <v>1014000</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -16575,8 +16785,10 @@
       <c r="A110" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B110" t="n">
-        <v>1015000</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1015000</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -16723,8 +16935,10 @@
       <c r="A111" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B111" t="n">
-        <v>1016000</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1016000</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -16871,8 +17085,10 @@
       <c r="A112" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B112" t="n">
-        <v>1017000</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1017000</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -17019,8 +17235,10 @@
       <c r="A113" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B113" t="n">
-        <v>1018000</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1018000</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -17167,8 +17385,10 @@
       <c r="A114" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B114" t="n">
-        <v>1019000</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1019000</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -17315,8 +17535,10 @@
       <c r="A115" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B115" t="n">
-        <v>1020000</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1020000</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -17463,8 +17685,10 @@
       <c r="A116" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B116" t="n">
-        <v>1021000</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1021000</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -17611,8 +17835,10 @@
       <c r="A117" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B117" t="n">
-        <v>1061000</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1061000</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -17759,8 +17985,10 @@
       <c r="A118" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B118" t="n">
-        <v>1062000</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1062000</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -17907,8 +18135,10 @@
       <c r="A119" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B119" t="n">
-        <v>1063000</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1063000</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -18055,8 +18285,10 @@
       <c r="A120" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B120" t="n">
-        <v>1201000</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1201000</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -18203,8 +18435,10 @@
       <c r="A121" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B121" t="n">
-        <v>1202000</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1202000</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -18351,8 +18585,10 @@
       <c r="A122" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B122" t="n">
-        <v>1203000</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1203000</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -18499,8 +18735,10 @@
       <c r="A123" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B123" t="n">
-        <v>1204000</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1204000</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -18647,8 +18885,10 @@
       <c r="A124" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B124" t="n">
-        <v>1205000</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1205000</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -18795,8 +19035,10 @@
       <c r="A125" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B125" t="n">
-        <v>1206000</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1206000</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -18943,8 +19185,10 @@
       <c r="A126" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B126" t="n">
-        <v>1207000</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1207000</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -19091,8 +19335,10 @@
       <c r="A127" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B127" t="n">
-        <v>1208000</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1208000</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -19239,8 +19485,10 @@
       <c r="A128" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B128" t="n">
-        <v>1209000</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -19387,8 +19635,10 @@
       <c r="A129" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B129" t="n">
-        <v>1210000</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1210000</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -19535,8 +19785,10 @@
       <c r="A130" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B130" t="n">
-        <v>1211000</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1211000</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -19683,8 +19935,10 @@
       <c r="A131" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B131" t="n">
-        <v>1212000</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1212000</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -19831,8 +20085,10 @@
       <c r="A132" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B132" t="n">
-        <v>1213000</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1213000</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -19979,8 +20235,10 @@
       <c r="A133" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B133" t="n">
-        <v>1214000</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1214000</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -20127,8 +20385,10 @@
       <c r="A134" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B134" t="n">
-        <v>1215000</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1215000</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -20275,8 +20535,10 @@
       <c r="A135" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B135" t="n">
-        <v>1216000</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1216000</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -20423,8 +20685,10 @@
       <c r="A136" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B136" t="n">
-        <v>1217000</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1217000</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -20571,8 +20835,10 @@
       <c r="A137" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B137" t="n">
-        <v>1218000</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1218000</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -20719,8 +20985,10 @@
       <c r="A138" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B138" t="n">
-        <v>1219000</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -20867,8 +21135,10 @@
       <c r="A139" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B139" t="n">
-        <v>1261000</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1261000</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -21015,8 +21285,10 @@
       <c r="A140" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B140" t="n">
-        <v>1262000</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1262000</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -21163,8 +21435,10 @@
       <c r="A141" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B141" t="n">
-        <v>1263000</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1263000</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -21311,8 +21585,10 @@
       <c r="A142" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B142" t="n">
-        <v>1401000</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1401000</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -21459,8 +21735,10 @@
       <c r="A143" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B143" t="n">
-        <v>1402000</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1402000</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -21607,8 +21885,10 @@
       <c r="A144" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B144" t="n">
-        <v>1403000</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1403000</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -21755,8 +22035,10 @@
       <c r="A145" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B145" t="n">
-        <v>1404000</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1404000</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -21903,8 +22185,10 @@
       <c r="A146" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B146" t="n">
-        <v>1405000</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1405000</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -22051,8 +22335,10 @@
       <c r="A147" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B147" t="n">
-        <v>1406000</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1406000</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -22199,8 +22485,10 @@
       <c r="A148" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B148" t="n">
-        <v>1407000</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -22347,8 +22635,10 @@
       <c r="A149" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B149" t="n">
-        <v>1408000</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1408000</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -22495,8 +22785,10 @@
       <c r="A150" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B150" t="n">
-        <v>1409000</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1409000</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -22643,8 +22935,10 @@
       <c r="A151" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B151" t="n">
-        <v>1410000</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1410000</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -22791,8 +23085,10 @@
       <c r="A152" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B152" t="n">
-        <v>1411000</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1411000</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -22939,8 +23235,10 @@
       <c r="A153" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B153" t="n">
-        <v>1412000</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1412000</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -23087,8 +23385,10 @@
       <c r="A154" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B154" t="n">
-        <v>1413000</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1413000</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -23235,8 +23535,10 @@
       <c r="A155" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B155" t="n">
-        <v>1414000</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1414000</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -23383,8 +23685,10 @@
       <c r="A156" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B156" t="n">
-        <v>1415000</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1415000</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -23531,8 +23835,10 @@
       <c r="A157" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B157" t="n">
-        <v>1416000</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1416000</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -23679,8 +23985,10 @@
       <c r="A158" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B158" t="n">
-        <v>1417000</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1417000</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -23827,8 +24135,10 @@
       <c r="A159" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B159" t="n">
-        <v>1418000</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1418000</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -23975,8 +24285,10 @@
       <c r="A160" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B160" t="n">
-        <v>1419000</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1419000</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -24123,8 +24435,10 @@
       <c r="A161" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B161" t="n">
-        <v>1420000</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1420000</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -24271,8 +24585,10 @@
       <c r="A162" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B162" t="n">
-        <v>1421000</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1421000</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -24419,8 +24735,10 @@
       <c r="A163" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B163" t="n">
-        <v>1422000</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1422000</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -24567,8 +24885,10 @@
       <c r="A164" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B164" t="n">
-        <v>1423000</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1423000</t>
+        </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -24715,8 +25035,10 @@
       <c r="A165" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B165" t="n">
-        <v>1424000</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1424000</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -24863,8 +25185,10 @@
       <c r="A166" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B166" t="n">
-        <v>1425000</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1425000</t>
+        </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -25011,8 +25335,10 @@
       <c r="A167" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B167" t="n">
-        <v>1426000</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1426000</t>
+        </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -25159,8 +25485,10 @@
       <c r="A168" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B168" t="n">
-        <v>1427000</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1427000</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -25307,8 +25635,10 @@
       <c r="A169" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B169" t="n">
-        <v>1428000</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1428000</t>
+        </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -25455,8 +25785,10 @@
       <c r="A170" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B170" t="n">
-        <v>1429000</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1429000</t>
+        </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -25603,8 +25935,10 @@
       <c r="A171" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B171" t="n">
-        <v>1430000</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1430000</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -25751,8 +26085,10 @@
       <c r="A172" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B172" t="n">
-        <v>1432000</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1432000</t>
+        </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -25899,8 +26235,10 @@
       <c r="A173" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B173" t="n">
-        <v>1433000</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1433000</t>
+        </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -26047,8 +26385,10 @@
       <c r="A174" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B174" t="n">
-        <v>1434000</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1434000</t>
+        </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -26195,8 +26535,10 @@
       <c r="A175" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B175" t="n">
-        <v>1435000</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1435000</t>
+        </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -26343,8 +26685,10 @@
       <c r="A176" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B176" t="n">
-        <v>1436000</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1436000</t>
+        </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -26491,8 +26835,10 @@
       <c r="A177" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B177" t="n">
-        <v>1437000</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1437000</t>
+        </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -26639,8 +26985,10 @@
       <c r="A178" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B178" t="n">
-        <v>1438000</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1438000</t>
+        </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -26787,8 +27135,10 @@
       <c r="A179" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B179" t="n">
-        <v>1461000</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1461000</t>
+        </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -26935,8 +27285,10 @@
       <c r="A180" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B180" t="n">
-        <v>1462000</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1462000</t>
+        </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -27083,8 +27435,10 @@
       <c r="A181" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B181" t="n">
-        <v>1463000</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1463000</t>
+        </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -27231,8 +27585,10 @@
       <c r="A182" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B182" t="n">
-        <v>1464000</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -27379,8 +27735,10 @@
       <c r="A183" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B183" t="n">
-        <v>1465000</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1465000</t>
+        </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -27527,8 +27885,10 @@
       <c r="A184" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B184" t="n">
-        <v>1601000</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1601000</t>
+        </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -27675,8 +28035,10 @@
       <c r="A185" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B185" t="n">
-        <v>1602000</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1602000</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -27823,8 +28185,10 @@
       <c r="A186" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B186" t="n">
-        <v>1603000</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1603000</t>
+        </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -27971,8 +28335,10 @@
       <c r="A187" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B187" t="n">
-        <v>1604000</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1604000</t>
+        </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -28119,8 +28485,10 @@
       <c r="A188" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B188" t="n">
-        <v>1605000</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1605000</t>
+        </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -28267,8 +28635,10 @@
       <c r="A189" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B189" t="n">
-        <v>1606000</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1606000</t>
+        </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -28415,8 +28785,10 @@
       <c r="A190" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B190" t="n">
-        <v>1607000</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1607000</t>
+        </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -28563,8 +28935,10 @@
       <c r="A191" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B191" t="n">
-        <v>1608000</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1608000</t>
+        </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -28711,8 +29085,10 @@
       <c r="A192" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B192" t="n">
-        <v>1609000</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -28859,8 +29235,10 @@
       <c r="A193" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B193" t="n">
-        <v>1610000</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1610000</t>
+        </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -29007,8 +29385,10 @@
       <c r="A194" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B194" t="n">
-        <v>1611000</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1611000</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -29155,8 +29535,10 @@
       <c r="A195" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B195" t="n">
-        <v>1661000</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1661000</t>
+        </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -29303,8 +29685,10 @@
       <c r="A196" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B196" t="n">
-        <v>1801000</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1801000</t>
+        </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -29451,8 +29835,10 @@
       <c r="A197" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B197" t="n">
-        <v>1802000</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1802000</t>
+        </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -29599,8 +29985,10 @@
       <c r="A198" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B198" t="n">
-        <v>1803000</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1803000</t>
+        </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -29747,8 +30135,10 @@
       <c r="A199" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B199" t="n">
-        <v>1804000</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1804000</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -29895,8 +30285,10 @@
       <c r="A200" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B200" t="n">
-        <v>1805000</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1805000</t>
+        </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -30043,8 +30435,10 @@
       <c r="A201" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B201" t="n">
-        <v>1806000</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1806000</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -30191,8 +30585,10 @@
       <c r="A202" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B202" t="n">
-        <v>1807000</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -30339,8 +30735,10 @@
       <c r="A203" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B203" t="n">
-        <v>1808000</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1808000</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -30487,8 +30885,10 @@
       <c r="A204" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B204" t="n">
-        <v>1809000</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1809000</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -30635,8 +31035,10 @@
       <c r="A205" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B205" t="n">
-        <v>1810000</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1810000</t>
+        </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -30783,8 +31185,10 @@
       <c r="A206" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B206" t="n">
-        <v>1811000</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1811000</t>
+        </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -30931,8 +31335,10 @@
       <c r="A207" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B207" t="n">
-        <v>1812000</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1812000</t>
+        </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -31079,8 +31485,10 @@
       <c r="A208" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B208" t="n">
-        <v>1813000</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1813000</t>
+        </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -31227,8 +31635,10 @@
       <c r="A209" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B209" t="n">
-        <v>1814000</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1814000</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -31375,8 +31785,10 @@
       <c r="A210" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B210" t="n">
-        <v>1815000</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1815000</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -31523,8 +31935,10 @@
       <c r="A211" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B211" t="n">
-        <v>1816000</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1816000</t>
+        </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -31671,8 +32085,10 @@
       <c r="A212" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B212" t="n">
-        <v>1817000</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1817000</t>
+        </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -31819,8 +32235,10 @@
       <c r="A213" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B213" t="n">
-        <v>1818000</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1818000</t>
+        </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -31967,8 +32385,10 @@
       <c r="A214" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B214" t="n">
-        <v>1819000</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1819000</t>
+        </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -32115,8 +32535,10 @@
       <c r="A215" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B215" t="n">
-        <v>1820000</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1820000</t>
+        </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -32263,8 +32685,10 @@
       <c r="A216" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B216" t="n">
-        <v>1821000</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1821000</t>
+        </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -32411,8 +32835,10 @@
       <c r="A217" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B217" t="n">
-        <v>1861000</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1861000</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -32559,8 +32985,10 @@
       <c r="A218" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B218" t="n">
-        <v>1862000</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1862000</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -32707,8 +33135,10 @@
       <c r="A219" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B219" t="n">
-        <v>1863000</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1863000</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -32855,8 +33285,10 @@
       <c r="A220" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B220" t="n">
-        <v>1864000</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1864000</t>
+        </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -33003,8 +33435,10 @@
       <c r="A221" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B221" t="n">
-        <v>2001000</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2001000</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -33151,8 +33585,10 @@
       <c r="A222" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B222" t="n">
-        <v>2002000</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2002000</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -33299,8 +33735,10 @@
       <c r="A223" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B223" t="n">
-        <v>2003000</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2003000</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -33447,8 +33885,10 @@
       <c r="A224" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B224" t="n">
-        <v>2004000</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2004000</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -33595,8 +34035,10 @@
       <c r="A225" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B225" t="n">
-        <v>2005000</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2005000</t>
+        </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -33743,8 +34185,10 @@
       <c r="A226" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B226" t="n">
-        <v>2006000</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2006000</t>
+        </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -33891,8 +34335,10 @@
       <c r="A227" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B227" t="n">
-        <v>2007000</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2007000</t>
+        </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -34039,8 +34485,10 @@
       <c r="A228" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B228" t="n">
-        <v>2008000</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2008000</t>
+        </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -34187,8 +34635,10 @@
       <c r="A229" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B229" t="n">
-        <v>2009000</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2009000</t>
+        </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -34335,8 +34785,10 @@
       <c r="A230" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B230" t="n">
-        <v>2010000</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2010000</t>
+        </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -34483,8 +34935,10 @@
       <c r="A231" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B231" t="n">
-        <v>2011000</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2011000</t>
+        </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -34631,8 +35085,10 @@
       <c r="A232" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B232" t="n">
-        <v>2012000</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2012000</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -34779,8 +35235,10 @@
       <c r="A233" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B233" t="n">
-        <v>2013000</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2013000</t>
+        </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -34927,8 +35385,10 @@
       <c r="A234" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B234" t="n">
-        <v>2014000</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2014000</t>
+        </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -35075,8 +35535,10 @@
       <c r="A235" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B235" t="n">
-        <v>2061000</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2061000</t>
+        </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -35223,8 +35685,10 @@
       <c r="A236" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B236" t="n">
-        <v>2062000</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2062000</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -35371,8 +35835,10 @@
       <c r="A237" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B237" t="n">
-        <v>2063000</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2063000</t>
+        </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -35519,8 +35985,10 @@
       <c r="A238" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B238" t="n">
-        <v>2201000</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2201000</t>
+        </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -35667,8 +36135,10 @@
       <c r="A239" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B239" t="n">
-        <v>2202000</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2202000</t>
+        </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -35815,8 +36285,10 @@
       <c r="A240" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B240" t="n">
-        <v>2203000</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2203000</t>
+        </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -35963,8 +36435,10 @@
       <c r="A241" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B241" t="n">
-        <v>2204000</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2204000</t>
+        </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -36111,8 +36585,10 @@
       <c r="A242" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B242" t="n">
-        <v>2205000</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2205000</t>
+        </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -36259,8 +36735,10 @@
       <c r="A243" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B243" t="n">
-        <v>2206000</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2206000</t>
+        </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -36407,8 +36885,10 @@
       <c r="A244" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B244" t="n">
-        <v>2207000</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2207000</t>
+        </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -36555,8 +37035,10 @@
       <c r="A245" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B245" t="n">
-        <v>2208000</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2208000</t>
+        </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -36703,8 +37185,10 @@
       <c r="A246" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B246" t="n">
-        <v>2209000</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2209000</t>
+        </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -36851,8 +37335,10 @@
       <c r="A247" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B247" t="n">
-        <v>2210000</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2210000</t>
+        </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -36999,8 +37485,10 @@
       <c r="A248" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B248" t="n">
-        <v>2211000</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2211000</t>
+        </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -37147,8 +37635,10 @@
       <c r="A249" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B249" t="n">
-        <v>2212000</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2212000</t>
+        </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -37295,8 +37785,10 @@
       <c r="A250" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B250" t="n">
-        <v>2213000</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2213000</t>
+        </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -37443,8 +37935,10 @@
       <c r="A251" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B251" t="n">
-        <v>2214000</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2214000</t>
+        </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -37591,8 +38085,10 @@
       <c r="A252" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B252" t="n">
-        <v>2215000</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2215000</t>
+        </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -37739,8 +38235,10 @@
       <c r="A253" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B253" t="n">
-        <v>2216000</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2216000</t>
+        </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -37887,8 +38385,10 @@
       <c r="A254" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B254" t="n">
-        <v>2261000</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2261000</t>
+        </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -38035,8 +38535,10 @@
       <c r="A255" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B255" t="n">
-        <v>2262000</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2262000</t>
+        </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -38183,8 +38685,10 @@
       <c r="A256" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B256" t="n">
-        <v>2263000</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2263000</t>
+        </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -38331,8 +38835,10 @@
       <c r="A257" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B257" t="n">
-        <v>2264000</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2264000</t>
+        </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -38479,8 +38985,10 @@
       <c r="A258" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B258" t="n">
-        <v>2401000</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2401000</t>
+        </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -38627,8 +39135,10 @@
       <c r="A259" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B259" t="n">
-        <v>2402000</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2402000</t>
+        </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -38775,8 +39285,10 @@
       <c r="A260" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B260" t="n">
-        <v>2403000</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2403000</t>
+        </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -38923,8 +39435,10 @@
       <c r="A261" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B261" t="n">
-        <v>2404000</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2404000</t>
+        </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -39071,8 +39585,10 @@
       <c r="A262" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B262" t="n">
-        <v>2405000</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2405000</t>
+        </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -39219,8 +39735,10 @@
       <c r="A263" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B263" t="n">
-        <v>2406000</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2406000</t>
+        </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -39367,8 +39885,10 @@
       <c r="A264" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B264" t="n">
-        <v>2407000</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2407000</t>
+        </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -39515,8 +40035,10 @@
       <c r="A265" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B265" t="n">
-        <v>2408000</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2408000</t>
+        </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -39663,8 +40185,10 @@
       <c r="A266" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B266" t="n">
-        <v>2409000</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2409000</t>
+        </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -39811,8 +40335,10 @@
       <c r="A267" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B267" t="n">
-        <v>2410000</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2410000</t>
+        </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -39959,8 +40485,10 @@
       <c r="A268" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B268" t="n">
-        <v>2411000</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2411000</t>
+        </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -40107,8 +40635,10 @@
       <c r="A269" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B269" t="n">
-        <v>2412000</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2412000</t>
+        </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -40255,8 +40785,10 @@
       <c r="A270" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B270" t="n">
-        <v>2413000</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2413000</t>
+        </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -40403,8 +40935,10 @@
       <c r="A271" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B271" t="n">
-        <v>2414000</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2414000</t>
+        </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -40551,8 +41085,10 @@
       <c r="A272" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B272" t="n">
-        <v>2415000</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2415000</t>
+        </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -40699,8 +41235,10 @@
       <c r="A273" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B273" t="n">
-        <v>2416000</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2416000</t>
+        </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -40847,8 +41385,10 @@
       <c r="A274" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B274" t="n">
-        <v>2417000</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2417000</t>
+        </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -40995,8 +41535,10 @@
       <c r="A275" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B275" t="n">
-        <v>2461000</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2461000</t>
+        </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -41143,8 +41685,10 @@
       <c r="A276" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B276" t="n">
-        <v>2462000</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2462000</t>
+        </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -41291,8 +41835,10 @@
       <c r="A277" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B277" t="n">
-        <v>2463000</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2463000</t>
+        </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -41439,8 +41985,10 @@
       <c r="A278" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B278" t="n">
-        <v>2464000</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2464000</t>
+        </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -41587,8 +42135,10 @@
       <c r="A279" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B279" t="n">
-        <v>2465000</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2465000</t>
+        </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -41735,8 +42285,10 @@
       <c r="A280" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B280" t="n">
-        <v>2466000</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2466000</t>
+        </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -41883,8 +42435,10 @@
       <c r="A281" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B281" t="n">
-        <v>2467000</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2467000</t>
+        </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -42031,8 +42585,10 @@
       <c r="A282" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B282" t="n">
-        <v>2468000</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2468000</t>
+        </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -42179,8 +42735,10 @@
       <c r="A283" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B283" t="n">
-        <v>2469000</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2469000</t>
+        </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -42327,8 +42885,10 @@
       <c r="A284" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B284" t="n">
-        <v>2470000</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2470000</t>
+        </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -42475,8 +43035,10 @@
       <c r="A285" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B285" t="n">
-        <v>2471000</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2471000</t>
+        </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -42623,8 +43185,10 @@
       <c r="A286" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B286" t="n">
-        <v>2472000</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2472000</t>
+        </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -42771,8 +43335,10 @@
       <c r="A287" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B287" t="n">
-        <v>2473000</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2473000</t>
+        </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -42919,8 +43485,10 @@
       <c r="A288" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B288" t="n">
-        <v>2474000</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2474000</t>
+        </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -43067,8 +43635,10 @@
       <c r="A289" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B289" t="n">
-        <v>2475000</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2475000</t>
+        </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -43215,8 +43785,10 @@
       <c r="A290" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B290" t="n">
-        <v>2476000</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2476000</t>
+        </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -43363,8 +43935,10 @@
       <c r="A291" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B291" t="n">
-        <v>2477000</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2477000</t>
+        </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -43511,8 +44085,10 @@
       <c r="A292" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B292" t="n">
-        <v>2478000</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2478000</t>
+        </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -43659,8 +44235,10 @@
       <c r="A293" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B293" t="n">
-        <v>2479000</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2479000</t>
+        </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -43807,8 +44385,10 @@
       <c r="A294" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B294" t="n">
-        <v>2601000</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2601000</t>
+        </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -43955,8 +44535,10 @@
       <c r="A295" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B295" t="n">
-        <v>2602000</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2602000</t>
+        </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -44103,8 +44685,10 @@
       <c r="A296" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B296" t="n">
-        <v>2603000</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2603000</t>
+        </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -44251,8 +44835,10 @@
       <c r="A297" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B297" t="n">
-        <v>2604000</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2604000</t>
+        </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -44399,8 +44985,10 @@
       <c r="A298" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B298" t="n">
-        <v>2605000</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2605000</t>
+        </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -44547,8 +45135,10 @@
       <c r="A299" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B299" t="n">
-        <v>2606000</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2606000</t>
+        </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -44695,8 +45285,10 @@
       <c r="A300" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B300" t="n">
-        <v>2607000</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2607000</t>
+        </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -44843,8 +45435,10 @@
       <c r="A301" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B301" t="n">
-        <v>2608000</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2608000</t>
+        </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -44991,8 +45585,10 @@
       <c r="A302" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B302" t="n">
-        <v>2609000</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2609000</t>
+        </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -45139,8 +45735,10 @@
       <c r="A303" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B303" t="n">
-        <v>2610000</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2610000</t>
+        </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -45287,8 +45885,10 @@
       <c r="A304" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B304" t="n">
-        <v>2611000</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2611000</t>
+        </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -45435,8 +46035,10 @@
       <c r="A305" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B305" t="n">
-        <v>2612000</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2612000</t>
+        </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -45583,8 +46185,10 @@
       <c r="A306" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B306" t="n">
-        <v>2613000</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2613000</t>
+        </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -45731,8 +46335,10 @@
       <c r="A307" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B307" t="n">
-        <v>2661000</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2661000</t>
+        </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -45879,8 +46485,10 @@
       <c r="A308" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B308" t="n">
-        <v>2801000</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2801000</t>
+        </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -46027,8 +46635,10 @@
       <c r="A309" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B309" t="n">
-        <v>2802000</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2802000</t>
+        </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -46175,8 +46785,10 @@
       <c r="A310" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B310" t="n">
-        <v>2803000</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2803000</t>
+        </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -46323,8 +46935,10 @@
       <c r="A311" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B311" t="n">
-        <v>2804000</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2804000</t>
+        </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -46471,8 +47085,10 @@
       <c r="A312" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B312" t="n">
-        <v>2805000</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2805000</t>
+        </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -46619,8 +47235,10 @@
       <c r="A313" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B313" t="n">
-        <v>2806000</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2806000</t>
+        </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -46767,8 +47385,10 @@
       <c r="A314" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B314" t="n">
-        <v>2807000</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2807000</t>
+        </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -46915,8 +47535,10 @@
       <c r="A315" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B315" t="n">
-        <v>2808000</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2808000</t>
+        </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -47063,8 +47685,10 @@
       <c r="A316" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B316" t="n">
-        <v>2809000</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2809000</t>
+        </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -47211,8 +47835,10 @@
       <c r="A317" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B317" t="n">
-        <v>2810000</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2810000</t>
+        </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -47359,8 +47985,10 @@
       <c r="A318" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B318" t="n">
-        <v>2811000</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2811000</t>
+        </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -47507,8 +48135,10 @@
       <c r="A319" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B319" t="n">
-        <v>2812000</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2812000</t>
+        </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -47655,8 +48285,10 @@
       <c r="A320" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B320" t="n">
-        <v>2813000</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2813000</t>
+        </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -47803,8 +48435,10 @@
       <c r="A321" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B321" t="n">
-        <v>2814000</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2814000</t>
+        </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -47951,8 +48585,10 @@
       <c r="A322" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B322" t="n">
-        <v>2815000</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2815000</t>
+        </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -48099,8 +48735,10 @@
       <c r="A323" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B323" t="n">
-        <v>2816000</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2816000</t>
+        </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -48247,8 +48885,10 @@
       <c r="A324" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B324" t="n">
-        <v>2817000</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2817000</t>
+        </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -48395,8 +49035,10 @@
       <c r="A325" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B325" t="n">
-        <v>2818000</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2818000</t>
+        </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -48543,8 +49185,10 @@
       <c r="A326" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B326" t="n">
-        <v>2819000</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2819000</t>
+        </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -48691,8 +49335,10 @@
       <c r="A327" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B327" t="n">
-        <v>2861000</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2861000</t>
+        </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -48839,8 +49485,10 @@
       <c r="A328" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B328" t="n">
-        <v>2862000</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2862000</t>
+        </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -48987,8 +49635,10 @@
       <c r="A329" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B329" t="n">
-        <v>3001000</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>3001000</t>
+        </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -49135,8 +49785,10 @@
       <c r="A330" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B330" t="n">
-        <v>3002000</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>3002000</t>
+        </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -49283,8 +49935,10 @@
       <c r="A331" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B331" t="n">
-        <v>3003000</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>3003000</t>
+        </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -49431,8 +50085,10 @@
       <c r="A332" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B332" t="n">
-        <v>3004000</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>3004000</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -49579,8 +50235,10 @@
       <c r="A333" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B333" t="n">
-        <v>3005000</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>3005000</t>
+        </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -49727,8 +50385,10 @@
       <c r="A334" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B334" t="n">
-        <v>3006000</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>3006000</t>
+        </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -49875,8 +50535,10 @@
       <c r="A335" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B335" t="n">
-        <v>3007000</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>3007000</t>
+        </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -50023,8 +50685,10 @@
       <c r="A336" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B336" t="n">
-        <v>3008000</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>3008000</t>
+        </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -50171,8 +50835,10 @@
       <c r="A337" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B337" t="n">
-        <v>3009000</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>3009000</t>
+        </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -50319,8 +50985,10 @@
       <c r="A338" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B338" t="n">
-        <v>3010000</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>3010000</t>
+        </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -50467,8 +51135,10 @@
       <c r="A339" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B339" t="n">
-        <v>3011000</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>3011000</t>
+        </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -50615,8 +51285,10 @@
       <c r="A340" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B340" t="n">
-        <v>3012000</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>3012000</t>
+        </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -50763,8 +51435,10 @@
       <c r="A341" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B341" t="n">
-        <v>3013000</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>3013000</t>
+        </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -50911,8 +51585,10 @@
       <c r="A342" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B342" t="n">
-        <v>3014000</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>3014000</t>
+        </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -51059,8 +51735,10 @@
       <c r="A343" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B343" t="n">
-        <v>3015000</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>3015000</t>
+        </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -51207,8 +51885,10 @@
       <c r="A344" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B344" t="n">
-        <v>3016000</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>3016000</t>
+        </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -51355,8 +52035,10 @@
       <c r="A345" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B345" t="n">
-        <v>3017000</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>3017000</t>
+        </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -51503,8 +52185,10 @@
       <c r="A346" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B346" t="n">
-        <v>3018000</v>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>3018000</t>
+        </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -51651,8 +52335,10 @@
       <c r="A347" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B347" t="n">
-        <v>3019000</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>3019000</t>
+        </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -51799,8 +52485,10 @@
       <c r="A348" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B348" t="n">
-        <v>3020000</v>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>3020000</t>
+        </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -51947,8 +52635,10 @@
       <c r="A349" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B349" t="n">
-        <v>3021000</v>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>3021000</t>
+        </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -52095,8 +52785,10 @@
       <c r="A350" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B350" t="n">
-        <v>3022000</v>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>3022000</t>
+        </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -52243,8 +52935,10 @@
       <c r="A351" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B351" t="n">
-        <v>3023000</v>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>3023000</t>
+        </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -52391,8 +53085,10 @@
       <c r="A352" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B352" t="n">
-        <v>3024000</v>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>3024000</t>
+        </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -52539,8 +53235,10 @@
       <c r="A353" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B353" t="n">
-        <v>3025000</v>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>3025000</t>
+        </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -52687,8 +53385,10 @@
       <c r="A354" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B354" t="n">
-        <v>3026000</v>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>3026000</t>
+        </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -52835,8 +53535,10 @@
       <c r="A355" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B355" t="n">
-        <v>3027000</v>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>3027000</t>
+        </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -52983,8 +53685,10 @@
       <c r="A356" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B356" t="n">
-        <v>3028000</v>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>3028000</t>
+        </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -53131,8 +53835,10 @@
       <c r="A357" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B357" t="n">
-        <v>3029000</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>3029000</t>
+        </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -53279,8 +53985,10 @@
       <c r="A358" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B358" t="n">
-        <v>3030000</v>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>3030000</t>
+        </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -53427,8 +54135,10 @@
       <c r="A359" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B359" t="n">
-        <v>3031000</v>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>3031000</t>
+        </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -53575,8 +54285,10 @@
       <c r="A360" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B360" t="n">
-        <v>3061000</v>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>3061000</t>
+        </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -53723,8 +54435,10 @@
       <c r="A361" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B361" t="n">
-        <v>3062000</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>3062000</t>
+        </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -53871,8 +54585,10 @@
       <c r="A362" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B362" t="n">
-        <v>3063000</v>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>3063000</t>
+        </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -54019,8 +54735,10 @@
       <c r="A363" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B363" t="n">
-        <v>3064000</v>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>3064000</t>
+        </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -54167,8 +54885,10 @@
       <c r="A364" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B364" t="n">
-        <v>3201000</v>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>3201000</t>
+        </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -54315,8 +55035,10 @@
       <c r="A365" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B365" t="n">
-        <v>3202000</v>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>3202000</t>
+        </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -54463,8 +55185,10 @@
       <c r="A366" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B366" t="n">
-        <v>3203000</v>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>3203000</t>
+        </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -54611,8 +55335,10 @@
       <c r="A367" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B367" t="n">
-        <v>3204000</v>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>3204000</t>
+        </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -54759,8 +55485,10 @@
       <c r="A368" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B368" t="n">
-        <v>3205000</v>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>3205000</t>
+        </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -54907,8 +55635,10 @@
       <c r="A369" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B369" t="n">
-        <v>3206000</v>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>3206000</t>
+        </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -55055,8 +55785,10 @@
       <c r="A370" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B370" t="n">
-        <v>3207000</v>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>3207000</t>
+        </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -55203,8 +55935,10 @@
       <c r="A371" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B371" t="n">
-        <v>3208000</v>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>3208000</t>
+        </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -55351,8 +56085,10 @@
       <c r="A372" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B372" t="n">
-        <v>3209000</v>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>3209000</t>
+        </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -55499,8 +56235,10 @@
       <c r="A373" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B373" t="n">
-        <v>3210000</v>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>3210000</t>
+        </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -55647,8 +56385,10 @@
       <c r="A374" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B374" t="n">
-        <v>3211000</v>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>3211000</t>
+        </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -55795,8 +56535,10 @@
       <c r="A375" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B375" t="n">
-        <v>3212000</v>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>3212000</t>
+        </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -55943,8 +56685,10 @@
       <c r="A376" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B376" t="n">
-        <v>3213000</v>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>3213000</t>
+        </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -56091,8 +56835,10 @@
       <c r="A377" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B377" t="n">
-        <v>3214000</v>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>3214000</t>
+        </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -56239,8 +56985,10 @@
       <c r="A378" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B378" t="n">
-        <v>3215000</v>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>3215000</t>
+        </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -56387,8 +57135,10 @@
       <c r="A379" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B379" t="n">
-        <v>3216000</v>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>3216000</t>
+        </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -56535,8 +57285,10 @@
       <c r="A380" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B380" t="n">
-        <v>3217000</v>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>3217000</t>
+        </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -56683,8 +57435,10 @@
       <c r="A381" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B381" t="n">
-        <v>3218000</v>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>3218000</t>
+        </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -56831,8 +57585,10 @@
       <c r="A382" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B382" t="n">
-        <v>3261000</v>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>3261000</t>
+        </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -56979,8 +57735,10 @@
       <c r="A383" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B383" t="n">
-        <v>3262000</v>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3262000</t>
+        </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -57127,8 +57885,10 @@
       <c r="A384" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B384" t="n">
-        <v>3263000</v>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>3263000</t>
+        </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
